--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Modélisation 1" sheetId="2" r:id="rId1"/>
     <sheet name="Modélisation 2" sheetId="1" r:id="rId2"/>
     <sheet name="Modélisation 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Requête 1" sheetId="4" r:id="rId4"/>
-    <sheet name="Requête 2" sheetId="5" r:id="rId5"/>
-    <sheet name="Requête 3" sheetId="6" r:id="rId6"/>
-    <sheet name="Requête 4" sheetId="7" r:id="rId7"/>
-    <sheet name="Requête 5" sheetId="8" r:id="rId8"/>
-    <sheet name="Requête 6" sheetId="9" r:id="rId9"/>
+    <sheet name="Modélisation 4" sheetId="10" r:id="rId4"/>
+    <sheet name="Requête 1" sheetId="4" r:id="rId5"/>
+    <sheet name="Requête 2" sheetId="5" r:id="rId6"/>
+    <sheet name="Requête 3" sheetId="6" r:id="rId7"/>
+    <sheet name="Requête 4" sheetId="7" r:id="rId8"/>
+    <sheet name="Requête 5" sheetId="8" r:id="rId9"/>
+    <sheet name="Requête 6" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="11">
   <si>
     <t>Taille</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
   </si>
 </sst>
 </file>
@@ -97,13 +101,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -962,6 +985,631 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 6'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Requête 6'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 6'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 6'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Requête 6'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 6'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 6'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Requête 6'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 6'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 6'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 6'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-100F-4CBE-81E7-56080D95BF18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1827550016"/>
+        <c:axId val="1827554592"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Requête 6'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Taille</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Requête 6'!$A$2:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Requête 6'!$A$2:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1827550016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827554592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1827554592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827550016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1067,16 +1715,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1969</c:v>
+                  <c:v>21808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100036</c:v>
+                  <c:v>104828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200575</c:v>
+                  <c:v>204843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>428914</c:v>
+                  <c:v>406715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,16 +1790,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,16 +1865,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,16 +1940,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,16 +2015,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,16 +2092,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,6 +2513,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468914</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1928,6 +2588,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1991,6 +2663,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2054,6 +2738,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2117,6 +2813,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89075</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2182,6 +2890,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2544,6 +3264,805 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Modélisation 4'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B286-4E4E-8764-0400B3F52235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Modélisation 4'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B286-4E4E-8764-0400B3F52235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Modélisation 4'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B286-4E4E-8764-0400B3F52235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Modélisation 4'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B286-4E4E-8764-0400B3F52235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Modélisation 4'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B286-4E4E-8764-0400B3F52235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Modélisation 4'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modélisation 4'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B286-4E4E-8764-0400B3F52235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1348990703"/>
+        <c:axId val="1348993199"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Modélisation 4'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Taille</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Modélisation 4'!$A$2:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Modélisation 4'!$A$2:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B286-4E4E-8764-0400B3F52235}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1348990703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1348993199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1348993199"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1348990703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Requête 1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2668,16 +4187,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1969</c:v>
+                  <c:v>21808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100036</c:v>
+                  <c:v>104828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200575</c:v>
+                  <c:v>204843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>428914</c:v>
+                  <c:v>406715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,16 +4262,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>101497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>250575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>468914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,6 +4280,60 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FA3C-4C6D-8178-80F0DEC6B435}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 1'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-244E-4F73-BD42-6A51B4AC74F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2929,7 +4502,6 @@
       <c:valAx>
         <c:axId val="1749575728"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3060,7 +4632,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3240,16 +4812,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,16 +4887,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,6 +4905,60 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-432C-47EA-A615-F4B858BF8AA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 2'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6815-4498-8E46-C3C898571216}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3632,7 +5258,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3812,16 +5438,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3887,16 +5513,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3905,6 +5531,60 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4865-4B62-B19E-2EDAD909D64F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 3'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 3'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8EF-44D5-ACB1-232065B672AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4204,7 +5884,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4384,16 +6064,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4459,16 +6139,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4477,6 +6157,60 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F7E4-476C-BA09-59ED6F748809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 4'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 4'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4792-485E-AC96-72D644B8776B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4645,6 +6379,7 @@
       <c:valAx>
         <c:axId val="1827548768"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4775,7 +6510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4955,16 +6690,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,16 +6765,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>18744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>89075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,6 +6783,60 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4270-4849-9B9B-1A302FEADA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Requête 5'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Requête 5'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE30-424D-89C1-160B46ECFD69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5216,6 +7005,7 @@
       <c:valAx>
         <c:axId val="1709783472"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5346,578 +7136,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Requête 6'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Requête 6'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Requête 6'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Requête 6'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Requête 6'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Requête 6'!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Requête 6'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Requête 6'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Requête 6'!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1827550016"/>
-        <c:axId val="1827554592"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Requête 6'!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Taille</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Requête 6'!$A$2:$A$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>50000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>200000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Requête 6'!$A$2:$A$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>50000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>200000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1827550016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1827554592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1827554592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1827550016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6793,6 +8052,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -10939,6 +12714,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11031,19 +12841,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11078,7 +12888,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11113,7 +12923,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11136,13 +12946,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -11218,7 +13028,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11247,6 +13057,28 @@
     <tableColumn id="5" name="R4"/>
     <tableColumn id="6" name="R5"/>
     <tableColumn id="7" name="R6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table478910" displayName="Table478910" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Taille"/>
+    <tableColumn id="2" name="M1" dataDxfId="3">
+      <calculatedColumnFormula>Table1[[#This Row],[R6]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="M2" dataDxfId="2">
+      <calculatedColumnFormula>Table2[[#This Row],[R6]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="M3" dataDxfId="1">
+      <calculatedColumnFormula>Table24[[#This Row],[R6]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="M4" dataDxfId="0">
+      <calculatedColumnFormula>Table2411[[#This Row],[R6]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11285,9 +13117,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table2411" displayName="Table2411" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Taille"/>
+    <tableColumn id="2" name="R1"/>
+    <tableColumn id="3" name="R2"/>
+    <tableColumn id="4" name="R3"/>
+    <tableColumn id="5" name="R4"/>
+    <tableColumn id="6" name="R5"/>
+    <tableColumn id="7" name="R6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="M1">
       <calculatedColumnFormula>Table1[[#This Row],[R1]]</calculatedColumnFormula>
@@ -11298,24 +13146,8 @@
     <tableColumn id="4" name="M3">
       <calculatedColumnFormula>Table24[[#This Row],[R1]]</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Taille"/>
-    <tableColumn id="2" name="M1" dataDxfId="14">
-      <calculatedColumnFormula>Table1[[#This Row],[R2]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="M2" dataDxfId="13">
-      <calculatedColumnFormula>Table2[[#This Row],[R2]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="M3" dataDxfId="12">
-      <calculatedColumnFormula>Table24[[#This Row],[R2]]</calculatedColumnFormula>
+    <tableColumn id="5" name="M4" dataDxfId="20">
+      <calculatedColumnFormula>Table2411[[#This Row],[R1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11323,18 +13155,21 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
-    <tableColumn id="2" name="M1" dataDxfId="11">
-      <calculatedColumnFormula>Table1[[#This Row],[R3]]</calculatedColumnFormula>
+    <tableColumn id="2" name="M1" dataDxfId="19">
+      <calculatedColumnFormula>Table1[[#This Row],[R2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="M2" dataDxfId="10">
-      <calculatedColumnFormula>Table2[[#This Row],[R3]]</calculatedColumnFormula>
+    <tableColumn id="3" name="M2" dataDxfId="18">
+      <calculatedColumnFormula>Table2[[#This Row],[R2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="M3" dataDxfId="9">
-      <calculatedColumnFormula>Table24[[#This Row],[R3]]</calculatedColumnFormula>
+    <tableColumn id="4" name="M3" dataDxfId="17">
+      <calculatedColumnFormula>Table24[[#This Row],[R2]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="M4" dataDxfId="16">
+      <calculatedColumnFormula>Table2411[[#This Row],[R2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11342,18 +13177,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table478" displayName="Table478" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
-    <tableColumn id="2" name="M1" dataDxfId="8">
-      <calculatedColumnFormula>Table1[[#This Row],[R4]]</calculatedColumnFormula>
+    <tableColumn id="2" name="M1" dataDxfId="15">
+      <calculatedColumnFormula>Table1[[#This Row],[R3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="M2" dataDxfId="7">
-      <calculatedColumnFormula>Table2[[#This Row],[R4]]</calculatedColumnFormula>
+    <tableColumn id="3" name="M2" dataDxfId="14">
+      <calculatedColumnFormula>Table2[[#This Row],[R3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="M3" dataDxfId="6">
-      <calculatedColumnFormula>Table24[[#This Row],[R4]]</calculatedColumnFormula>
+    <tableColumn id="4" name="M3" dataDxfId="13">
+      <calculatedColumnFormula>Table24[[#This Row],[R3]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="M4" dataDxfId="12">
+      <calculatedColumnFormula>Table2411[[#This Row],[R3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11361,18 +13199,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4789" displayName="Table4789" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table478" displayName="Table478" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
-    <tableColumn id="2" name="M1" dataDxfId="5">
-      <calculatedColumnFormula>Table1[[#This Row],[R5]]</calculatedColumnFormula>
+    <tableColumn id="2" name="M1" dataDxfId="11">
+      <calculatedColumnFormula>Table1[[#This Row],[R4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="M2" dataDxfId="4">
-      <calculatedColumnFormula>Table2[[#This Row],[R5]]</calculatedColumnFormula>
+    <tableColumn id="3" name="M2" dataDxfId="10">
+      <calculatedColumnFormula>Table2[[#This Row],[R4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="M3" dataDxfId="3">
-      <calculatedColumnFormula>Table24[[#This Row],[R5]]</calculatedColumnFormula>
+    <tableColumn id="4" name="M3" dataDxfId="9">
+      <calculatedColumnFormula>Table24[[#This Row],[R4]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="M4" dataDxfId="8">
+      <calculatedColumnFormula>Table2411[[#This Row],[R4]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11380,18 +13221,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table478910" displayName="Table478910" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4789" displayName="Table4789" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
-    <tableColumn id="2" name="M1" dataDxfId="2">
-      <calculatedColumnFormula>Table1[[#This Row],[R6]]</calculatedColumnFormula>
+    <tableColumn id="2" name="M1" dataDxfId="7">
+      <calculatedColumnFormula>Table1[[#This Row],[R5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="M2" dataDxfId="1">
-      <calculatedColumnFormula>Table2[[#This Row],[R6]]</calculatedColumnFormula>
+    <tableColumn id="3" name="M2" dataDxfId="6">
+      <calculatedColumnFormula>Table2[[#This Row],[R5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="M3" dataDxfId="0">
-      <calculatedColumnFormula>Table24[[#This Row],[R6]]</calculatedColumnFormula>
+    <tableColumn id="4" name="M3" dataDxfId="5">
+      <calculatedColumnFormula>Table24[[#This Row],[R5]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="M4" dataDxfId="4">
+      <calculatedColumnFormula>Table2411[[#This Row],[R5]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11664,7 +13508,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11782,6 +13626,126 @@
       </c>
       <c r="G5">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <f>Table1[[#This Row],[R6]]</f>
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <f>Table2[[#This Row],[R6]]</f>
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <f>Table24[[#This Row],[R6]]</f>
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Table2411[[#This Row],[R6]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50000</v>
+      </c>
+      <c r="B3">
+        <f>Table1[[#This Row],[R6]]</f>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <f>Table2[[#This Row],[R6]]</f>
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <f>Table24[[#This Row],[R6]]</f>
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Table2411[[#This Row],[R6]]</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100000</v>
+      </c>
+      <c r="B4">
+        <f>Table1[[#This Row],[R6]]</f>
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <f>Table2[[#This Row],[R6]]</f>
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>Table24[[#This Row],[R6]]</f>
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Table2411[[#This Row],[R6]]</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200000</v>
+      </c>
+      <c r="B5">
+        <f>Table1[[#This Row],[R6]]</f>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f>Table2[[#This Row],[R6]]</f>
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <f>Table24[[#This Row],[R6]]</f>
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Table2411[[#This Row],[R6]]</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -11798,7 +13762,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11831,22 +13795,22 @@
         <v>10000</v>
       </c>
       <c r="B2">
-        <v>1969</v>
+        <v>21808</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11854,22 +13818,22 @@
         <v>50000</v>
       </c>
       <c r="B3">
-        <v>100036</v>
+        <v>104828</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11877,22 +13841,22 @@
         <v>100000</v>
       </c>
       <c r="B4">
-        <v>200575</v>
+        <v>204843</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11900,22 +13864,22 @@
         <v>200000</v>
       </c>
       <c r="B5">
-        <v>428914</v>
+        <v>406715</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -11932,8 +13896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11965,20 +13929,92 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2">
+        <v>20749</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2379</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
+      <c r="B3">
+        <v>101497</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>18744</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
+      <c r="B4">
+        <v>250575</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>41335</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200000</v>
+      </c>
+      <c r="B5">
+        <v>468914</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>89075</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -11992,94 +14028,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
-        <f>Table1[[#This Row],[R1]]</f>
-        <v>25670</v>
+        <v>20749</v>
       </c>
       <c r="C2">
-        <f>Table2[[#This Row],[R1]]</f>
-        <v>1969</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <f>Table24[[#This Row],[R1]]</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2379</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
       <c r="B3">
-        <f>Table1[[#This Row],[R1]]</f>
-        <v>103238</v>
+        <v>101497</v>
       </c>
       <c r="C3">
-        <f>Table2[[#This Row],[R1]]</f>
-        <v>100036</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <f>Table24[[#This Row],[R1]]</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>18744</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
       <c r="B4">
-        <f>Table1[[#This Row],[R1]]</f>
-        <v>220365</v>
+        <v>250575</v>
       </c>
       <c r="C4">
-        <f>Table2[[#This Row],[R1]]</f>
-        <v>200575</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <f>Table24[[#This Row],[R1]]</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>41335</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200000</v>
       </c>
       <c r="B5">
-        <f>Table1[[#This Row],[R1]]</f>
-        <v>403743</v>
+        <v>468914</v>
       </c>
       <c r="C5">
-        <f>Table2[[#This Row],[R1]]</f>
-        <v>428914</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <f>Table24[[#This Row],[R1]]</f>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>89075</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -12093,15 +14162,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12114,73 +14183,92 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
-        <f>Table1[[#This Row],[R2]]</f>
-        <v>1300</v>
+        <f>Table1[[#This Row],[R1]]</f>
+        <v>25670</v>
       </c>
       <c r="C2">
-        <f>Table2[[#This Row],[R2]]</f>
-        <v>47</v>
+        <f>Table2[[#This Row],[R1]]</f>
+        <v>21808</v>
       </c>
       <c r="D2">
-        <f>Table24[[#This Row],[R2]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R1]]</f>
+        <v>20749</v>
+      </c>
+      <c r="E2">
+        <f>Table2411[[#This Row],[R1]]</f>
+        <v>20749</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
       <c r="B3">
-        <f>Table1[[#This Row],[R2]]</f>
-        <v>11007</v>
+        <f>Table1[[#This Row],[R1]]</f>
+        <v>103238</v>
       </c>
       <c r="C3">
-        <f>Table2[[#This Row],[R2]]</f>
-        <v>46</v>
+        <f>Table2[[#This Row],[R1]]</f>
+        <v>104828</v>
       </c>
       <c r="D3">
-        <f>Table24[[#This Row],[R2]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R1]]</f>
+        <v>101497</v>
+      </c>
+      <c r="E3">
+        <f>Table2411[[#This Row],[R1]]</f>
+        <v>101497</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
       <c r="B4">
-        <f>Table1[[#This Row],[R2]]</f>
-        <v>21980</v>
+        <f>Table1[[#This Row],[R1]]</f>
+        <v>220365</v>
       </c>
       <c r="C4">
-        <f>Table2[[#This Row],[R2]]</f>
-        <v>58</v>
+        <f>Table2[[#This Row],[R1]]</f>
+        <v>204843</v>
       </c>
       <c r="D4">
-        <f>Table24[[#This Row],[R2]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R1]]</f>
+        <v>250575</v>
+      </c>
+      <c r="E4">
+        <f>Table2411[[#This Row],[R1]]</f>
+        <v>250575</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200000</v>
       </c>
       <c r="B5">
-        <f>Table1[[#This Row],[R2]]</f>
-        <v>48184</v>
+        <f>Table1[[#This Row],[R1]]</f>
+        <v>403743</v>
       </c>
       <c r="C5">
-        <f>Table2[[#This Row],[R2]]</f>
-        <v>63</v>
+        <f>Table2[[#This Row],[R1]]</f>
+        <v>406715</v>
       </c>
       <c r="D5">
-        <f>Table24[[#This Row],[R2]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R1]]</f>
+        <v>468914</v>
+      </c>
+      <c r="E5">
+        <f>Table2411[[#This Row],[R1]]</f>
+        <v>468914</v>
       </c>
     </row>
   </sheetData>
@@ -12194,15 +14282,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12215,73 +14303,92 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
-        <f>Table1[[#This Row],[R3]]</f>
-        <v>1054</v>
+        <f>Table1[[#This Row],[R2]]</f>
+        <v>1300</v>
       </c>
       <c r="C2">
-        <f>Table2[[#This Row],[R3]]</f>
-        <v>41</v>
+        <f>Table2[[#This Row],[R2]]</f>
+        <v>51</v>
       </c>
       <c r="D2">
-        <f>Table24[[#This Row],[R3]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R2]]</f>
+        <v>43</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Table2411[[#This Row],[R2]]</f>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
       <c r="B3">
-        <f>Table1[[#This Row],[R3]]</f>
-        <v>10258</v>
+        <f>Table1[[#This Row],[R2]]</f>
+        <v>11007</v>
       </c>
       <c r="C3">
-        <f>Table2[[#This Row],[R3]]</f>
-        <v>39</v>
+        <f>Table2[[#This Row],[R2]]</f>
+        <v>49</v>
       </c>
       <c r="D3">
-        <f>Table24[[#This Row],[R3]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R2]]</f>
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Table2411[[#This Row],[R2]]</f>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
       <c r="B4">
-        <f>Table1[[#This Row],[R3]]</f>
-        <v>27147</v>
+        <f>Table1[[#This Row],[R2]]</f>
+        <v>21980</v>
       </c>
       <c r="C4">
-        <f>Table2[[#This Row],[R3]]</f>
+        <f>Table2[[#This Row],[R2]]</f>
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <f>Table24[[#This Row],[R2]]</f>
         <v>38</v>
       </c>
-      <c r="D4">
-        <f>Table24[[#This Row],[R3]]</f>
-        <v>0</v>
+      <c r="E4" s="1">
+        <f>Table2411[[#This Row],[R2]]</f>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200000</v>
       </c>
       <c r="B5">
-        <f>Table1[[#This Row],[R3]]</f>
-        <v>41567</v>
+        <f>Table1[[#This Row],[R2]]</f>
+        <v>48184</v>
       </c>
       <c r="C5">
-        <f>Table2[[#This Row],[R3]]</f>
-        <v>46</v>
+        <f>Table2[[#This Row],[R2]]</f>
+        <v>47</v>
       </c>
       <c r="D5">
-        <f>Table24[[#This Row],[R3]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R2]]</f>
+        <v>37</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Table2411[[#This Row],[R2]]</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12295,15 +14402,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12316,73 +14423,92 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
-        <f>Table1[[#This Row],[R4]]</f>
-        <v>18</v>
+        <f>Table1[[#This Row],[R3]]</f>
+        <v>1054</v>
       </c>
       <c r="C2">
-        <f>Table2[[#This Row],[R4]]</f>
-        <v>16</v>
+        <f>Table2[[#This Row],[R3]]</f>
+        <v>44</v>
       </c>
       <c r="D2">
-        <f>Table24[[#This Row],[R4]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R3]]</f>
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Table2411[[#This Row],[R3]]</f>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
       <c r="B3">
-        <f>Table1[[#This Row],[R4]]</f>
-        <v>22</v>
+        <f>Table1[[#This Row],[R3]]</f>
+        <v>10258</v>
       </c>
       <c r="C3">
-        <f>Table2[[#This Row],[R4]]</f>
-        <v>14</v>
+        <f>Table2[[#This Row],[R3]]</f>
+        <v>47</v>
       </c>
       <c r="D3">
-        <f>Table24[[#This Row],[R4]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R3]]</f>
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Table2411[[#This Row],[R3]]</f>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
       <c r="B4">
-        <f>Table1[[#This Row],[R4]]</f>
-        <v>18</v>
+        <f>Table1[[#This Row],[R3]]</f>
+        <v>27147</v>
       </c>
       <c r="C4">
-        <f>Table2[[#This Row],[R4]]</f>
-        <v>12</v>
+        <f>Table2[[#This Row],[R3]]</f>
+        <v>36</v>
       </c>
       <c r="D4">
-        <f>Table24[[#This Row],[R4]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R3]]</f>
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Table2411[[#This Row],[R3]]</f>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200000</v>
       </c>
       <c r="B5">
-        <f>Table1[[#This Row],[R4]]</f>
-        <v>17</v>
+        <f>Table1[[#This Row],[R3]]</f>
+        <v>41567</v>
       </c>
       <c r="C5">
-        <f>Table2[[#This Row],[R4]]</f>
-        <v>19</v>
+        <f>Table2[[#This Row],[R3]]</f>
+        <v>40</v>
       </c>
       <c r="D5">
-        <f>Table24[[#This Row],[R4]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R3]]</f>
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Table2411[[#This Row],[R3]]</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -12396,15 +14522,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12417,73 +14543,92 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
-        <f>Table1[[#This Row],[R5]]</f>
-        <v>19</v>
+        <f>Table1[[#This Row],[R4]]</f>
+        <v>18</v>
       </c>
       <c r="C2">
-        <f>Table2[[#This Row],[R5]]</f>
-        <v>98</v>
+        <f>Table2[[#This Row],[R4]]</f>
+        <v>20</v>
       </c>
       <c r="D2">
-        <f>Table24[[#This Row],[R5]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R4]]</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Table2411[[#This Row],[R4]]</f>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
       <c r="B3">
-        <f>Table1[[#This Row],[R5]]</f>
-        <v>21</v>
+        <f>Table1[[#This Row],[R4]]</f>
+        <v>22</v>
       </c>
       <c r="C3">
-        <f>Table2[[#This Row],[R5]]</f>
-        <v>90</v>
+        <f>Table2[[#This Row],[R4]]</f>
+        <v>17</v>
       </c>
       <c r="D3">
-        <f>Table24[[#This Row],[R5]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R4]]</f>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Table2411[[#This Row],[R4]]</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
       <c r="B4">
-        <f>Table1[[#This Row],[R5]]</f>
+        <f>Table1[[#This Row],[R4]]</f>
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f>Table2[[#This Row],[R4]]</f>
         <v>17</v>
       </c>
-      <c r="C4">
-        <f>Table2[[#This Row],[R5]]</f>
-        <v>94</v>
-      </c>
       <c r="D4">
-        <f>Table24[[#This Row],[R5]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R4]]</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Table2411[[#This Row],[R4]]</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200000</v>
       </c>
       <c r="B5">
-        <f>Table1[[#This Row],[R5]]</f>
-        <v>19</v>
+        <f>Table1[[#This Row],[R4]]</f>
+        <v>17</v>
       </c>
       <c r="C5">
-        <f>Table2[[#This Row],[R5]]</f>
-        <v>110</v>
+        <f>Table2[[#This Row],[R4]]</f>
+        <v>16</v>
       </c>
       <c r="D5">
-        <f>Table24[[#This Row],[R5]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R4]]</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Table2411[[#This Row],[R4]]</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -12497,15 +14642,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12518,73 +14663,92 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
-        <f>Table1[[#This Row],[R6]]</f>
-        <v>12</v>
+        <f>Table1[[#This Row],[R5]]</f>
+        <v>19</v>
       </c>
       <c r="C2">
-        <f>Table2[[#This Row],[R6]]</f>
-        <v>9</v>
+        <f>Table2[[#This Row],[R5]]</f>
+        <v>137</v>
       </c>
       <c r="D2">
-        <f>Table24[[#This Row],[R6]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R5]]</f>
+        <v>2379</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Table2411[[#This Row],[R5]]</f>
+        <v>2379</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
       <c r="B3">
-        <f>Table1[[#This Row],[R6]]</f>
-        <v>15</v>
+        <f>Table1[[#This Row],[R5]]</f>
+        <v>21</v>
       </c>
       <c r="C3">
-        <f>Table2[[#This Row],[R6]]</f>
-        <v>7</v>
+        <f>Table2[[#This Row],[R5]]</f>
+        <v>105</v>
       </c>
       <c r="D3">
-        <f>Table24[[#This Row],[R6]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R5]]</f>
+        <v>18744</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Table2411[[#This Row],[R5]]</f>
+        <v>18744</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100000</v>
       </c>
       <c r="B4">
-        <f>Table1[[#This Row],[R6]]</f>
-        <v>14</v>
+        <f>Table1[[#This Row],[R5]]</f>
+        <v>17</v>
       </c>
       <c r="C4">
-        <f>Table2[[#This Row],[R6]]</f>
-        <v>7</v>
+        <f>Table2[[#This Row],[R5]]</f>
+        <v>107</v>
       </c>
       <c r="D4">
-        <f>Table24[[#This Row],[R6]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R5]]</f>
+        <v>41335</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Table2411[[#This Row],[R5]]</f>
+        <v>41335</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200000</v>
       </c>
       <c r="B5">
-        <f>Table1[[#This Row],[R6]]</f>
-        <v>12</v>
+        <f>Table1[[#This Row],[R5]]</f>
+        <v>19</v>
       </c>
       <c r="C5">
-        <f>Table2[[#This Row],[R6]]</f>
-        <v>9</v>
+        <f>Table2[[#This Row],[R5]]</f>
+        <v>106</v>
       </c>
       <c r="D5">
-        <f>Table24[[#This Row],[R6]]</f>
-        <v>0</v>
+        <f>Table24[[#This Row],[R5]]</f>
+        <v>89075</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Table2411[[#This Row],[R5]]</f>
+        <v>89075</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Modélisation 1" sheetId="2" r:id="rId1"/>
@@ -264,10 +264,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 1'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 1'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -279,16 +279,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 1'!$B$2:$B$5</c:f>
+              <c:f>'Modélisation 1'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>25670</c:v>
                 </c:pt>
@@ -300,6 +306,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>403743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>935626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1683649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,10 +351,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 1'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 1'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -354,16 +366,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 1'!$C$2:$C$5</c:f>
+              <c:f>'Modélisation 1'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1300</c:v>
                 </c:pt>
@@ -375,6 +393,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>48184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,10 +438,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 1'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 1'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -429,16 +453,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 1'!$D$2:$D$5</c:f>
+              <c:f>'Modélisation 1'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1054</c:v>
                 </c:pt>
@@ -450,6 +480,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,10 +525,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 1'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 1'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -504,16 +540,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 1'!$E$2:$E$5</c:f>
+              <c:f>'Modélisation 1'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -525,6 +567,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,10 +612,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 1'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 1'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -579,16 +627,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 1'!$F$2:$F$5</c:f>
+              <c:f>'Modélisation 1'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -600,6 +654,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,10 +701,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 1'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 1'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -656,16 +716,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 1'!$G$2:$G$5</c:f>
+              <c:f>'Modélisation 1'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -677,6 +743,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,13 +811,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 1'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 1'!$A$2:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -758,6 +830,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -766,13 +844,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 1'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 1'!$A$2:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -784,6 +862,12 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1033,8 +1117,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1051,23 +1136,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 6'!$A$2:$A$5</c:f>
+              <c:f>'Requête 6'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -1079,16 +1162,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 6'!$B$2:$B$5</c:f>
+              <c:f>'Requête 6'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1100,11 +1189,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
@@ -1126,23 +1220,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 6'!$A$2:$A$5</c:f>
+              <c:f>'Requête 6'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -1154,32 +1246,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 6'!$C$2:$C$5</c:f>
+              <c:f>'Requête 6'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>2229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>19361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>41868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>85244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>449492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
@@ -1201,23 +1304,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 6'!$A$2:$A$5</c:f>
+              <c:f>'Requête 6'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -1229,32 +1330,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 6'!$D$2:$D$5</c:f>
+              <c:f>'Requête 6'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>18956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>42407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>83665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>459749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
@@ -1276,39 +1388,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 6'!$E$2:$E$5</c:f>
+              <c:f>'Requête 6'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>3057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>24537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>49612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>100970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>795913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-100F-4CBE-81E7-56080D95BF18}"/>
@@ -1323,12 +1438,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1827550016"/>
         <c:axId val="1827554592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -1350,29 +1465,27 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 6'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 6'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -1385,6 +1498,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1393,13 +1512,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 6'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 6'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -1412,20 +1531,25 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-3C9E-49FD-A274-ACD5AF0E1F7B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1827550016"/>
         <c:scaling>
@@ -1480,6 +1604,7 @@
       <c:valAx>
         <c:axId val="1827554592"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1689,10 +1814,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 2'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -1704,27 +1829,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 2'!$B$2:$B$5</c:f>
+              <c:f>'Modélisation 2'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21808</c:v>
+                  <c:v>19694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104828</c:v>
+                  <c:v>100036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204843</c:v>
+                  <c:v>235978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406715</c:v>
+                  <c:v>448974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>968665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1906602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,10 +1901,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 2'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -1779,26 +1916,38 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 2'!$C$2:$C$5</c:f>
+              <c:f>'Modélisation 2'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
@@ -1839,10 +1988,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 2'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -1854,27 +2003,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 2'!$D$2:$D$5</c:f>
+              <c:f>'Modélisation 2'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,10 +2075,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 2'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -1929,26 +2090,38 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 2'!$E$2:$E$5</c:f>
+              <c:f>'Modélisation 2'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -1989,10 +2162,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 2'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2004,27 +2177,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 2'!$F$2:$F$5</c:f>
+              <c:f>'Modélisation 2'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,10 +2251,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 2'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2081,27 +2266,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 2'!$G$2:$G$5</c:f>
+              <c:f>'Modélisation 2'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>2229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>19361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>41868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>85244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>449492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,13 +2361,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 2'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 2'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -2183,6 +2380,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2191,13 +2394,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 2'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 2'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -2209,6 +2412,12 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2488,10 +2697,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 3'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2503,16 +2712,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 3'!$B$2:$B$5</c:f>
+              <c:f>'Modélisation 3'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20749</c:v>
                 </c:pt>
@@ -2524,6 +2739,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>468914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>977914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,10 +2784,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 3'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2578,27 +2799,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 3'!$C$2:$C$5</c:f>
+              <c:f>'Modélisation 3'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,10 +2871,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 3'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2653,27 +2886,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 3'!$D$2:$D$5</c:f>
+              <c:f>'Modélisation 3'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,10 +2958,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 3'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2728,27 +2973,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 3'!$E$2:$E$5</c:f>
+              <c:f>'Modélisation 3'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,10 +3045,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 3'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2803,27 +3060,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 3'!$F$2:$F$5</c:f>
+              <c:f>'Modélisation 3'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2379</c:v>
+                  <c:v>3236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18744</c:v>
+                  <c:v>20027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41335</c:v>
+                  <c:v>43787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89075</c:v>
+                  <c:v>84568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>484854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,10 +3134,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 3'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2880,27 +3149,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 3'!$G$2:$G$5</c:f>
+              <c:f>'Modélisation 3'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>18956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>42407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>83665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>459749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,13 +3244,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 3'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 3'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -2982,6 +3263,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2990,13 +3277,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 3'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 3'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -3008,6 +3295,12 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3287,10 +3580,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -3302,27 +3595,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 4'!$B$2:$B$5</c:f>
+              <c:f>'Modélisation 4'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20749</c:v>
+                  <c:v>20691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101497</c:v>
+                  <c:v>99715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250575</c:v>
+                  <c:v>192947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468914</c:v>
+                  <c:v>403499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1068597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2319443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,10 +3667,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -3377,27 +3682,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 4'!$C$2:$C$5</c:f>
+              <c:f>'Modélisation 4'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,10 +3754,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -3452,27 +3769,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 4'!$D$2:$D$5</c:f>
+              <c:f>'Modélisation 4'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,10 +3841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -3527,27 +3856,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 4'!$E$2:$E$5</c:f>
+              <c:f>'Modélisation 4'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>3513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>23083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>49500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>102962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3587,10 +3928,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -3602,27 +3943,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 4'!$F$2:$F$5</c:f>
+              <c:f>'Modélisation 4'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2379</c:v>
+                  <c:v>3337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41335</c:v>
+                  <c:v>49567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89075</c:v>
+                  <c:v>101658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,10 +4017,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Modélisation 4'!$A$2:$A$5</c:f>
+              <c:f>'Modélisation 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -3679,27 +4032,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Modélisation 4'!$G$2:$G$5</c:f>
+              <c:f>'Modélisation 4'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>3057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>24537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>49612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>100970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>795913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3762,13 +4127,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 4'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 4'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -3781,6 +4146,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3789,13 +4160,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Modélisation 4'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Modélisation 4'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -3807,6 +4178,12 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4055,8 +4432,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -4073,23 +4451,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 1'!$A$2:$A$5</c:f>
+              <c:f>'Requête 1'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -4101,16 +4477,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 1'!$B$2:$B$5</c:f>
+              <c:f>'Requête 1'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>25670</c:v>
                 </c:pt>
@@ -4122,11 +4504,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>403743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>935626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1683649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FA3C-4C6D-8178-80F0DEC6B435}"/>
@@ -4148,23 +4535,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 1'!$A$2:$A$5</c:f>
+              <c:f>'Requête 1'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -4176,32 +4561,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 1'!$C$2:$C$5</c:f>
+              <c:f>'Requête 1'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21808</c:v>
+                  <c:v>19694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104828</c:v>
+                  <c:v>100036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204843</c:v>
+                  <c:v>235978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406715</c:v>
+                  <c:v>448974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>968665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1906602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FA3C-4C6D-8178-80F0DEC6B435}"/>
@@ -4223,23 +4619,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 1'!$A$2:$A$5</c:f>
+              <c:f>'Requête 1'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -4251,16 +4645,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 1'!$D$2:$D$5</c:f>
+              <c:f>'Requête 1'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20749</c:v>
                 </c:pt>
@@ -4272,11 +4672,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>468914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>977914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FA3C-4C6D-8178-80F0DEC6B435}"/>
@@ -4298,39 +4703,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 1'!$E$2:$E$5</c:f>
+              <c:f>'Requête 1'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20749</c:v>
+                  <c:v>20691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101497</c:v>
+                  <c:v>99715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250575</c:v>
+                  <c:v>192947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468914</c:v>
+                  <c:v>403499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1068597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2319443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-244E-4F73-BD42-6A51B4AC74F3}"/>
@@ -4345,12 +4753,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1749582384"/>
         <c:axId val="1749575728"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -4372,29 +4780,27 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 1'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 1'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -4407,6 +4813,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -4415,13 +4827,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 1'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 1'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -4434,20 +4846,25 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-FA3C-4C6D-8178-80F0DEC6B435}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1749582384"/>
         <c:scaling>
@@ -4680,8 +5097,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -4698,23 +5116,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 2'!$A$2:$A$5</c:f>
+              <c:f>'Requête 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -4726,16 +5142,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 2'!$B$2:$B$5</c:f>
+              <c:f>'Requête 2'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1300</c:v>
                 </c:pt>
@@ -4747,11 +5169,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>48184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-432C-47EA-A615-F4B858BF8AA9}"/>
@@ -4773,23 +5200,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 2'!$A$2:$A$5</c:f>
+              <c:f>'Requête 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -4801,32 +5226,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 2'!$C$2:$C$5</c:f>
+              <c:f>'Requête 2'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-432C-47EA-A615-F4B858BF8AA9}"/>
@@ -4848,23 +5284,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 2'!$A$2:$A$5</c:f>
+              <c:f>'Requête 2'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -4876,32 +5310,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 2'!$D$2:$D$5</c:f>
+              <c:f>'Requête 2'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-432C-47EA-A615-F4B858BF8AA9}"/>
@@ -4923,39 +5368,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 2'!$E$2:$E$5</c:f>
+              <c:f>'Requête 2'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6815-4498-8E46-C3C898571216}"/>
@@ -4970,12 +5418,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1827550848"/>
         <c:axId val="1827559584"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -4997,29 +5445,27 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 2'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 2'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -5032,6 +5478,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -5040,13 +5492,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 2'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 2'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -5059,20 +5511,25 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-432C-47EA-A615-F4B858BF8AA9}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1827550848"/>
         <c:scaling>
@@ -5306,8 +5763,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -5324,23 +5782,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 3'!$A$2:$A$5</c:f>
+              <c:f>'Requête 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -5352,16 +5808,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 3'!$B$2:$B$5</c:f>
+              <c:f>'Requête 3'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1054</c:v>
                 </c:pt>
@@ -5373,11 +5835,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4865-4B62-B19E-2EDAD909D64F}"/>
@@ -5399,23 +5866,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 3'!$A$2:$A$5</c:f>
+              <c:f>'Requête 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -5427,32 +5892,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 3'!$C$2:$C$5</c:f>
+              <c:f>'Requête 3'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4865-4B62-B19E-2EDAD909D64F}"/>
@@ -5474,23 +5950,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 3'!$A$2:$A$5</c:f>
+              <c:f>'Requête 3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -5502,32 +5976,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 3'!$D$2:$D$5</c:f>
+              <c:f>'Requête 3'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4865-4B62-B19E-2EDAD909D64F}"/>
@@ -5549,39 +6034,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 3'!$E$2:$E$5</c:f>
+              <c:f>'Requête 3'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C8EF-44D5-ACB1-232065B672AE}"/>
@@ -5596,12 +6084,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1827560000"/>
         <c:axId val="1827546272"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -5623,29 +6111,27 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 3'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 3'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -5658,6 +6144,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -5666,13 +6158,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 3'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 3'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -5685,20 +6177,25 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-4865-4B62-B19E-2EDAD909D64F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1827560000"/>
         <c:scaling>
@@ -5932,8 +6429,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -5950,23 +6448,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 4'!$A$2:$A$5</c:f>
+              <c:f>'Requête 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -5978,16 +6474,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 4'!$B$2:$B$5</c:f>
+              <c:f>'Requête 4'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -5999,11 +6501,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7E4-476C-BA09-59ED6F748809}"/>
@@ -6025,23 +6532,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 4'!$A$2:$A$5</c:f>
+              <c:f>'Requête 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -6053,32 +6558,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 4'!$C$2:$C$5</c:f>
+              <c:f>'Requête 4'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F7E4-476C-BA09-59ED6F748809}"/>
@@ -6100,23 +6616,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 4'!$A$2:$A$5</c:f>
+              <c:f>'Requête 4'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -6128,32 +6642,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 4'!$D$2:$D$5</c:f>
+              <c:f>'Requête 4'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F7E4-476C-BA09-59ED6F748809}"/>
@@ -6175,39 +6700,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 4'!$E$2:$E$5</c:f>
+              <c:f>'Requête 4'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>3513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>23083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>49500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>102962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4792-485E-AC96-72D644B8776B}"/>
@@ -6222,12 +6750,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1827547520"/>
         <c:axId val="1827548768"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -6249,29 +6777,27 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 4'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 4'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -6284,6 +6810,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -6292,13 +6824,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 4'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 4'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -6311,20 +6843,25 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F7E4-476C-BA09-59ED6F748809}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1827547520"/>
         <c:scaling>
@@ -6558,8 +7095,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -6576,23 +7114,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 5'!$A$2:$A$5</c:f>
+              <c:f>'Requête 5'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -6604,16 +7140,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 5'!$B$2:$B$5</c:f>
+              <c:f>'Requête 5'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -6625,11 +7167,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4270-4849-9B9B-1A302FEADA58}"/>
@@ -6651,23 +7198,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 5'!$A$2:$A$5</c:f>
+              <c:f>'Requête 5'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -6679,32 +7224,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 5'!$C$2:$C$5</c:f>
+              <c:f>'Requête 5'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4270-4849-9B9B-1A302FEADA58}"/>
@@ -6726,23 +7282,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Requête 5'!$A$2:$A$5</c:f>
+              <c:f>'Requête 5'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -6754,32 +7308,43 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 5'!$D$2:$D$5</c:f>
+              <c:f>'Requête 5'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2379</c:v>
+                  <c:v>3236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18744</c:v>
+                  <c:v>20027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41335</c:v>
+                  <c:v>43787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89075</c:v>
+                  <c:v>84568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>484854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4270-4849-9B9B-1A302FEADA58}"/>
@@ -6801,39 +7366,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Requête 5'!$E$2:$E$5</c:f>
+              <c:f>'Requête 5'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2379</c:v>
+                  <c:v>3337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41335</c:v>
+                  <c:v>49567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89075</c:v>
+                  <c:v>101658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE30-424D-89C1-160B46ECFD69}"/>
@@ -6848,12 +7416,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1709788048"/>
         <c:axId val="1709783472"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -6875,29 +7443,27 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 5'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 5'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -6910,6 +7476,12 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -6918,13 +7490,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Requête 5'!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>'Requête 5'!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>10000</c:v>
                       </c:pt>
@@ -6937,20 +7509,25 @@
                       <c:pt idx="3">
                         <c:v>200000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-4270-4849-9B9B-1A302FEADA58}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1709788048"/>
         <c:scaling>
@@ -13047,8 +13624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="R1"/>
@@ -13063,8 +13640,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table478910" displayName="Table478910" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table478910" displayName="Table478910" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="M1" dataDxfId="3">
@@ -13085,8 +13662,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="R1"/>
@@ -13101,8 +13678,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="R1"/>
@@ -13117,8 +13694,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table2411" displayName="Table2411" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table2411" displayName="Table2411" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="R1"/>
@@ -13133,10 +13710,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Taille"/>
+    <tableColumn id="1" name="Taille">
+      <calculatedColumnFormula>Table1[[#This Row],[Taille]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" name="M1">
       <calculatedColumnFormula>Table1[[#This Row],[R1]]</calculatedColumnFormula>
     </tableColumn>
@@ -13155,8 +13734,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="M1" dataDxfId="19">
@@ -13177,8 +13756,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="M1" dataDxfId="15">
@@ -13199,8 +13778,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table478" displayName="Table478" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table478" displayName="Table478" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="M1" dataDxfId="11">
@@ -13221,8 +13800,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4789" displayName="Table4789" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4789" displayName="Table4789" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Taille"/>
     <tableColumn id="2" name="M1" dataDxfId="7">
@@ -13505,10 +14084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13626,6 +14205,52 @@
       </c>
       <c r="G5">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <v>935626</v>
+      </c>
+      <c r="C6">
+        <v>111602</v>
+      </c>
+      <c r="D6">
+        <v>109975</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>1683649</v>
+      </c>
+      <c r="C7">
+        <v>235106</v>
+      </c>
+      <c r="D7">
+        <v>202906</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -13639,10 +14264,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13674,15 +14299,15 @@
       </c>
       <c r="C2">
         <f>Table2[[#This Row],[R6]]</f>
-        <v>72</v>
+        <v>2229</v>
       </c>
       <c r="D2">
         <f>Table24[[#This Row],[R6]]</f>
-        <v>31</v>
+        <v>2564</v>
       </c>
       <c r="E2" s="1">
         <f>Table2411[[#This Row],[R6]]</f>
-        <v>31</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13695,15 +14320,15 @@
       </c>
       <c r="C3">
         <f>Table2[[#This Row],[R6]]</f>
-        <v>66</v>
+        <v>19361</v>
       </c>
       <c r="D3">
         <f>Table24[[#This Row],[R6]]</f>
-        <v>37</v>
+        <v>18956</v>
       </c>
       <c r="E3" s="1">
         <f>Table2411[[#This Row],[R6]]</f>
-        <v>37</v>
+        <v>24537</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13716,15 +14341,15 @@
       </c>
       <c r="C4">
         <f>Table2[[#This Row],[R6]]</f>
-        <v>60</v>
+        <v>41868</v>
       </c>
       <c r="D4">
         <f>Table24[[#This Row],[R6]]</f>
-        <v>37</v>
+        <v>42407</v>
       </c>
       <c r="E4" s="1">
         <f>Table2411[[#This Row],[R6]]</f>
-        <v>37</v>
+        <v>49612</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13737,15 +14362,57 @@
       </c>
       <c r="C5">
         <f>Table2[[#This Row],[R6]]</f>
-        <v>66</v>
+        <v>85244</v>
       </c>
       <c r="D5">
         <f>Table24[[#This Row],[R6]]</f>
-        <v>45</v>
+        <v>83665</v>
       </c>
       <c r="E5" s="1">
         <f>Table2411[[#This Row],[R6]]</f>
-        <v>45</v>
+        <v>100970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Table1[[#This Row],[R6]]</f>
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Table2[[#This Row],[R6]]</f>
+        <v>216407</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Table24[[#This Row],[R6]]</f>
+        <v>212872</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Table2411[[#This Row],[R6]]</f>
+        <v>280590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Table1[[#This Row],[R6]]</f>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Table2[[#This Row],[R6]]</f>
+        <v>449492</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table24[[#This Row],[R6]]</f>
+        <v>459749</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Table2411[[#This Row],[R6]]</f>
+        <v>795913</v>
       </c>
     </row>
   </sheetData>
@@ -13759,10 +14426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13795,22 +14462,22 @@
         <v>10000</v>
       </c>
       <c r="B2">
-        <v>21808</v>
+        <v>19694</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13818,22 +14485,22 @@
         <v>50000</v>
       </c>
       <c r="B3">
-        <v>104828</v>
+        <v>100036</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>19361</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13841,22 +14508,22 @@
         <v>100000</v>
       </c>
       <c r="B4">
-        <v>204843</v>
+        <v>235978</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>17</v>
       </c>
       <c r="F4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>41868</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13864,22 +14531,68 @@
         <v>200000</v>
       </c>
       <c r="B5">
-        <v>406715</v>
+        <v>448974</v>
       </c>
       <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>85244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <v>968665</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>103</v>
+      </c>
+      <c r="G6">
+        <v>216407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>1906602</v>
+      </c>
+      <c r="C7">
         <v>47</v>
       </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>106</v>
-      </c>
-      <c r="G5">
-        <v>66</v>
+      <c r="F7">
+        <v>107</v>
+      </c>
+      <c r="G7">
+        <v>449492</v>
       </c>
     </row>
   </sheetData>
@@ -13894,10 +14607,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13933,19 +14646,19 @@
         <v>20749</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>2379</v>
+        <v>3236</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13956,19 +14669,19 @@
         <v>101497</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
       <c r="F3">
-        <v>18744</v>
+        <v>20027</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>18956</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13979,19 +14692,19 @@
         <v>250575</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>41335</v>
+        <v>43787</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>42407</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14005,16 +14718,62 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>89075</v>
+        <v>84568</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>83665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <v>977914</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>215677</v>
+      </c>
+      <c r="G6">
+        <v>212872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>2024978</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>484854</v>
+      </c>
+      <c r="G7">
+        <v>459749</v>
       </c>
     </row>
   </sheetData>
@@ -14028,10 +14787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14064,22 +14823,22 @@
         <v>10000</v>
       </c>
       <c r="B2">
-        <v>20749</v>
+        <v>20691</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>3513</v>
       </c>
       <c r="F2">
-        <v>2379</v>
+        <v>3337</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14087,22 +14846,22 @@
         <v>50000</v>
       </c>
       <c r="B3">
-        <v>101497</v>
+        <v>99715</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>23083</v>
       </c>
       <c r="F3">
         <v>18744</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>24537</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -14110,22 +14869,22 @@
         <v>100000</v>
       </c>
       <c r="B4">
-        <v>250575</v>
+        <v>192947</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>49500</v>
       </c>
       <c r="F4">
-        <v>41335</v>
+        <v>49567</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>49612</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14133,22 +14892,68 @@
         <v>200000</v>
       </c>
       <c r="B5">
-        <v>468914</v>
+        <v>403499</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>102962</v>
       </c>
       <c r="F5">
-        <v>89075</v>
+        <v>101658</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>100970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <v>1068597</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>297566</v>
+      </c>
+      <c r="F6">
+        <v>285784</v>
+      </c>
+      <c r="G6">
+        <v>280590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>2319443</v>
+      </c>
+      <c r="C7">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>598318</v>
+      </c>
+      <c r="F7">
+        <v>597250</v>
+      </c>
+      <c r="G7">
+        <v>795913</v>
       </c>
     </row>
   </sheetData>
@@ -14162,10 +14967,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14189,6 +14994,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f>Table1[[#This Row],[Taille]]</f>
         <v>10000</v>
       </c>
       <c r="B2">
@@ -14197,7 +15003,7 @@
       </c>
       <c r="C2">
         <f>Table2[[#This Row],[R1]]</f>
-        <v>21808</v>
+        <v>19694</v>
       </c>
       <c r="D2">
         <f>Table24[[#This Row],[R1]]</f>
@@ -14205,11 +15011,12 @@
       </c>
       <c r="E2">
         <f>Table2411[[#This Row],[R1]]</f>
-        <v>20749</v>
+        <v>20691</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>Table1[[#This Row],[Taille]]</f>
         <v>50000</v>
       </c>
       <c r="B3">
@@ -14218,7 +15025,7 @@
       </c>
       <c r="C3">
         <f>Table2[[#This Row],[R1]]</f>
-        <v>104828</v>
+        <v>100036</v>
       </c>
       <c r="D3">
         <f>Table24[[#This Row],[R1]]</f>
@@ -14226,11 +15033,12 @@
       </c>
       <c r="E3">
         <f>Table2411[[#This Row],[R1]]</f>
-        <v>101497</v>
+        <v>99715</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f>Table1[[#This Row],[Taille]]</f>
         <v>100000</v>
       </c>
       <c r="B4">
@@ -14239,7 +15047,7 @@
       </c>
       <c r="C4">
         <f>Table2[[#This Row],[R1]]</f>
-        <v>204843</v>
+        <v>235978</v>
       </c>
       <c r="D4">
         <f>Table24[[#This Row],[R1]]</f>
@@ -14247,11 +15055,12 @@
       </c>
       <c r="E4">
         <f>Table2411[[#This Row],[R1]]</f>
-        <v>250575</v>
+        <v>192947</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f>Table1[[#This Row],[Taille]]</f>
         <v>200000</v>
       </c>
       <c r="B5">
@@ -14260,7 +15069,7 @@
       </c>
       <c r="C5">
         <f>Table2[[#This Row],[R1]]</f>
-        <v>406715</v>
+        <v>448974</v>
       </c>
       <c r="D5">
         <f>Table24[[#This Row],[R1]]</f>
@@ -14268,7 +15077,50 @@
       </c>
       <c r="E5">
         <f>Table2411[[#This Row],[R1]]</f>
-        <v>468914</v>
+        <v>403499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Table1[[#This Row],[Taille]]</f>
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <f>Table1[[#This Row],[R1]]</f>
+        <v>935626</v>
+      </c>
+      <c r="C6">
+        <f>Table2[[#This Row],[R1]]</f>
+        <v>968665</v>
+      </c>
+      <c r="D6">
+        <f>Table24[[#This Row],[R1]]</f>
+        <v>977914</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Table2411[[#This Row],[R1]]</f>
+        <v>1068597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <f>Table1[[#This Row],[R1]]</f>
+        <v>1683649</v>
+      </c>
+      <c r="C7">
+        <f>Table2[[#This Row],[R1]]</f>
+        <v>1906602</v>
+      </c>
+      <c r="D7">
+        <f>Table24[[#This Row],[R1]]</f>
+        <v>2024978</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Table2411[[#This Row],[R1]]</f>
+        <v>2319443</v>
       </c>
     </row>
   </sheetData>
@@ -14282,10 +15134,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14317,15 +15169,15 @@
       </c>
       <c r="C2">
         <f>Table2[[#This Row],[R2]]</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <f>Table24[[#This Row],[R2]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1">
         <f>Table2411[[#This Row],[R2]]</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14338,15 +15190,15 @@
       </c>
       <c r="C3">
         <f>Table2[[#This Row],[R2]]</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <f>Table24[[#This Row],[R2]]</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
         <f>Table2411[[#This Row],[R2]]</f>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -14359,15 +15211,15 @@
       </c>
       <c r="C4">
         <f>Table2[[#This Row],[R2]]</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <f>Table24[[#This Row],[R2]]</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <f>Table2411[[#This Row],[R2]]</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14380,7 +15232,7 @@
       </c>
       <c r="C5">
         <f>Table2[[#This Row],[R2]]</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <f>Table24[[#This Row],[R2]]</f>
@@ -14388,7 +15240,49 @@
       </c>
       <c r="E5" s="1">
         <f>Table2411[[#This Row],[R2]]</f>
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Table1[[#This Row],[R2]]</f>
+        <v>111602</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Table2[[#This Row],[R2]]</f>
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Table24[[#This Row],[R2]]</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Table2411[[#This Row],[R2]]</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Table1[[#This Row],[R2]]</f>
+        <v>235106</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Table2[[#This Row],[R2]]</f>
+        <v>47</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table24[[#This Row],[R2]]</f>
+        <v>53</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Table2411[[#This Row],[R2]]</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -14402,10 +15296,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14437,15 +15331,15 @@
       </c>
       <c r="C2">
         <f>Table2[[#This Row],[R3]]</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <f>Table24[[#This Row],[R3]]</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1">
         <f>Table2411[[#This Row],[R3]]</f>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14458,15 +15352,15 @@
       </c>
       <c r="C3">
         <f>Table2[[#This Row],[R3]]</f>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <f>Table24[[#This Row],[R3]]</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
         <f>Table2411[[#This Row],[R3]]</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -14479,11 +15373,11 @@
       </c>
       <c r="C4">
         <f>Table2[[#This Row],[R3]]</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <f>Table24[[#This Row],[R3]]</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <f>Table2411[[#This Row],[R3]]</f>
@@ -14500,15 +15394,57 @@
       </c>
       <c r="C5">
         <f>Table2[[#This Row],[R3]]</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <f>Table24[[#This Row],[R3]]</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <f>Table2411[[#This Row],[R3]]</f>
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Table1[[#This Row],[R3]]</f>
+        <v>109975</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Table2[[#This Row],[R3]]</f>
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Table24[[#This Row],[R3]]</f>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Table2411[[#This Row],[R3]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Table1[[#This Row],[R3]]</f>
+        <v>202906</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Table2[[#This Row],[R3]]</f>
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table24[[#This Row],[R3]]</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Table2411[[#This Row],[R3]]</f>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14522,10 +15458,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14557,15 +15493,15 @@
       </c>
       <c r="C2">
         <f>Table2[[#This Row],[R4]]</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <f>Table24[[#This Row],[R4]]</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <f>Table2411[[#This Row],[R4]]</f>
-        <v>20</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14578,7 +15514,7 @@
       </c>
       <c r="C3">
         <f>Table2[[#This Row],[R4]]</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <f>Table24[[#This Row],[R4]]</f>
@@ -14586,7 +15522,7 @@
       </c>
       <c r="E3" s="1">
         <f>Table2411[[#This Row],[R4]]</f>
-        <v>15</v>
+        <v>23083</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -14603,11 +15539,11 @@
       </c>
       <c r="D4">
         <f>Table24[[#This Row],[R4]]</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <f>Table2411[[#This Row],[R4]]</f>
-        <v>15</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14620,7 +15556,7 @@
       </c>
       <c r="C5">
         <f>Table2[[#This Row],[R4]]</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <f>Table24[[#This Row],[R4]]</f>
@@ -14628,7 +15564,49 @@
       </c>
       <c r="E5" s="1">
         <f>Table2411[[#This Row],[R4]]</f>
-        <v>15</v>
+        <v>102962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Table1[[#This Row],[R4]]</f>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Table2[[#This Row],[R4]]</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Table24[[#This Row],[R4]]</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Table2411[[#This Row],[R4]]</f>
+        <v>297566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Table1[[#This Row],[R4]]</f>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Table2[[#This Row],[R4]]</f>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table24[[#This Row],[R4]]</f>
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Table2411[[#This Row],[R4]]</f>
+        <v>598318</v>
       </c>
     </row>
   </sheetData>
@@ -14642,10 +15620,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14677,15 +15655,15 @@
       </c>
       <c r="C2">
         <f>Table2[[#This Row],[R5]]</f>
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <f>Table24[[#This Row],[R5]]</f>
-        <v>2379</v>
+        <v>3236</v>
       </c>
       <c r="E2" s="1">
         <f>Table2411[[#This Row],[R5]]</f>
-        <v>2379</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14698,11 +15676,11 @@
       </c>
       <c r="C3">
         <f>Table2[[#This Row],[R5]]</f>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <f>Table24[[#This Row],[R5]]</f>
-        <v>18744</v>
+        <v>20027</v>
       </c>
       <c r="E3" s="1">
         <f>Table2411[[#This Row],[R5]]</f>
@@ -14719,15 +15697,15 @@
       </c>
       <c r="C4">
         <f>Table2[[#This Row],[R5]]</f>
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <f>Table24[[#This Row],[R5]]</f>
-        <v>41335</v>
+        <v>43787</v>
       </c>
       <c r="E4" s="1">
         <f>Table2411[[#This Row],[R5]]</f>
-        <v>41335</v>
+        <v>49567</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14740,15 +15718,57 @@
       </c>
       <c r="C5">
         <f>Table2[[#This Row],[R5]]</f>
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <f>Table24[[#This Row],[R5]]</f>
-        <v>89075</v>
+        <v>84568</v>
       </c>
       <c r="E5" s="1">
         <f>Table2411[[#This Row],[R5]]</f>
-        <v>89075</v>
+        <v>101658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Table1[[#This Row],[R5]]</f>
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Table2[[#This Row],[R5]]</f>
+        <v>103</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Table24[[#This Row],[R5]]</f>
+        <v>215677</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Table2411[[#This Row],[R5]]</f>
+        <v>285784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Table1[[#This Row],[R5]]</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Table2[[#This Row],[R5]]</f>
+        <v>107</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table24[[#This Row],[R5]]</f>
+        <v>484854</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Table2411[[#This Row],[R5]]</f>
+        <v>597250</v>
       </c>
     </row>
   </sheetData>
